--- a/data/epa_xls/lmopdatamt.xlsx
+++ b/data/epa_xls/lmopdatamt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD40F110-96C9-46F4-B685-B86F206811E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FC59B0-01B4-4098-8622-2494C11E6744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <author>Jeanette Alvis</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{72CE702F-8ED8-4E9B-85A1-6F77F1D07748}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{860FF51F-FA48-4B27-B851-6485A7CCE104}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{FB0D16F3-E10D-488D-BF30-E49371F90A61}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F07AF7E6-0916-40ED-BE60-F674A3B1B897}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{92522ED3-2F80-4778-B9B7-91EF49E24E15}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{611980E9-FB55-4870-8122-985F5B613E63}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{ADE6089A-9423-4B60-9D64-00A8B37D2927}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{2F45467A-FCF7-47EB-A83E-762BABFDC04C}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{29059280-251B-491C-9765-B68F7088EF99}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{54BEF461-BEDB-4A9B-AA04-82DB3E627B73}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{E378AB2A-B856-4F0A-9654-3717E638C948}">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{FBD55600-5DAD-4B54-A8FB-6F080674AB4F}">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{C21C0F05-6B1E-4EE0-A049-51583F8B6D9C}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{E1868118-2AC6-47B2-8283-971184ED8CBA}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{5434C495-A738-4910-B1E6-7F2CEFC9E80A}">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{37730411-3DE1-43EF-9346-7FB94DD76348}">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{9074DD17-F04E-412E-ABCA-32A5208A88C7}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{95AC5FD8-3BB8-4685-9F75-854531CDD668}">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{49CA48C1-06C9-4F2E-9BC0-674691FE4CAA}">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{31113D38-9C99-4894-A7DA-54069F15A3B4}">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{B68176DD-5973-460C-9554-637AC4FF4205}">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{DE5A1749-4F23-4174-879D-E9673B6B3590}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{029B6810-3BC2-4EBF-8722-223C19F1FACB}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{128609F7-038E-4F4E-8750-BB2B339487AC}">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{428EADDE-D395-4F71-8807-160B22CAAFC5}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{CB0FBCCD-3EE8-4511-AB86-8146FDF415E1}">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F86BD08E-0A42-4C0B-A7EB-F7E0D20DC5FF}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{766CD29C-E7C0-40FF-A4DB-A9A5058491D0}">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{204BA802-93FB-490A-BE09-38A7AA7DF630}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{22311881-EB21-4DE1-A4CB-D880AFC17A72}">
       <text>
         <r>
           <rPr>
@@ -397,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{E3815037-7952-4504-9639-BF259EEAF0E4}">
       <text>
         <r>
           <rPr>
@@ -411,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{239418FE-F731-414A-98AD-86C8FA6753AF}">
+    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{C064D634-788B-430D-A138-2D716BA43C01}">
       <text>
         <r>
           <rPr>
@@ -425,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{2CBB1E34-111D-4202-AA9E-8246D8EADDCB}">
       <text>
         <r>
           <rPr>
@@ -434,12 +434,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Capacity in megawatts for electricity-generating projects
+          <t xml:space="preserve">Actual or estimated electric generation in megawatts for electricity-generating projects
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{0912571B-519B-40E3-8449-B55311D66B77}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rated capacity in megawatts for electricity-generating projects
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{D46D695F-2306-4021-A1A5-1C0BF9E6F5A2}">
       <text>
         <r>
           <rPr>
@@ -453,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{A028AD50-149E-453A-85F5-D08077E9520A}">
       <text>
         <r>
           <rPr>
@@ -467,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{B3DABEB4-4E93-46C7-8106-86F53B9B531A}">
       <text>
         <r>
           <rPr>
@@ -486,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="298">
   <si>
     <t>GHGRP ID</t>
   </si>
@@ -567,9 +581,6 @@
   </si>
   <si>
     <t>Project Type Category</t>
-  </si>
-  <si>
-    <t>MW Capacity</t>
   </si>
   <si>
     <t>LFG Flow to Project (mmscfd)</t>
@@ -717,9 +728,6 @@
     <t>Specific type of LFG energy project technology</t>
   </si>
   <si>
-    <t>Capacity in megawatts for electricity-generating projects</t>
-  </si>
-  <si>
     <t>Amount of landfill gas flowing to project or that will flow to the project when it becomes operational in million standard cubic feet per day</t>
   </si>
   <si>
@@ -973,9 +981,6 @@
     <t>Gallatin County Logan Landfill</t>
   </si>
   <si>
-    <t>10585 2 Dog Road</t>
-  </si>
-  <si>
     <t>Three Forks</t>
   </si>
   <si>
@@ -1010,9 +1015,6 @@
     <t>59440</t>
   </si>
   <si>
-    <t>Montana Waste Systems</t>
-  </si>
-  <si>
     <t>180207-0</t>
   </si>
   <si>
@@ -1506,6 +1508,21 @@
   </si>
   <si>
     <t>1004538</t>
+  </si>
+  <si>
+    <t>Actual MW Generation</t>
+  </si>
+  <si>
+    <t>Rated MW Capacity</t>
+  </si>
+  <si>
+    <t>Actual or estimated electric generation in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>Rated capacity in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>10585 Two Dog Road</t>
   </si>
 </sst>
 </file>
@@ -1929,6 +1946,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1974,19 +2004,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2369,10 +2386,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>44</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -2394,36 +2411,36 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A9"/>
@@ -2438,70 +2455,70 @@
       <c r="D10"/>
     </row>
     <row r="11" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="A11" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="61"/>
+      <c r="A12" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="66"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:4" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="49"/>
+      <c r="C17" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:4" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
@@ -2510,20 +2527,20 @@
       <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="49"/>
+      <c r="A21" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
@@ -2534,16 +2551,16 @@
     <row r="24" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="49"/>
+      <c r="C24" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="54"/>
     </row>
     <row r="25" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2565,14 +2582,14 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Summary for 
 Current LMOP Landfill and LFG Energy Project Database - Montana</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -2607,13 +2624,13 @@
     <col min="25" max="25" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.44140625" customWidth="1"/>
     <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" style="47" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="14.33203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.33203125" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2696,43 +2713,46 @@
         <v>25</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AC1" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AF1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="63" t="s">
+      <c r="AG1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5">
         <v>21007</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="I2" s="5">
         <v>45.22</v>
@@ -2741,66 +2761,67 @@
         <v>-112.718</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-    </row>
-    <row r="3" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+    </row>
+    <row r="3" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="10">
         <v>2141</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="I3" s="10">
         <v>45.723680000000002</v>
@@ -2809,10 +2830,10 @@
         <v>-108.54805</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M3" s="10">
         <v>1969</v>
@@ -2821,76 +2842,77 @@
         <v>2050</v>
       </c>
       <c r="O3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="11">
+        <v>7822102</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P3" s="11">
-        <v>7517048</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S3" s="10">
         <v>1.0529999999999999</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="V3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="X3" s="12">
         <v>40519</v>
       </c>
       <c r="Y3" s="12"/>
       <c r="Z3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AA3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="AC3" s="10"/>
-      <c r="AD3" s="10">
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10">
         <v>0.89500000000000002</v>
       </c>
-      <c r="AE3" s="65">
-        <v>0.78349999999999997</v>
-      </c>
-      <c r="AF3" s="65">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AF3" s="50">
+        <v>7.8350000000000003E-2</v>
+      </c>
+      <c r="AG3" s="50">
+        <v>7.0600000000000003E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10">
         <v>21008</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="I4" s="10">
         <v>46.023299999999999</v>
@@ -2899,66 +2921,67 @@
         <v>-112.61499999999999</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W4" s="10"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-    </row>
-    <row r="5" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+    </row>
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B5" s="10">
         <v>1989</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I5" s="10">
         <v>45.716999999999999</v>
@@ -2967,10 +2990,10 @@
         <v>-111.024</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M5" s="10">
         <v>1967</v>
@@ -2979,7 +3002,7 @@
         <v>2007</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" s="11">
         <v>1500000</v>
@@ -2988,7 +3011,7 @@
         <v>2005</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S5" s="10">
         <v>0.224</v>
@@ -2997,48 +3020,49 @@
         <v>0.224</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-    </row>
-    <row r="6" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+    </row>
+    <row r="6" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>21009</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="I6" s="10">
         <v>47.103499999999997</v>
@@ -3047,64 +3071,65 @@
         <v>-104.69289999999999</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W6" s="10"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-    </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+    </row>
+    <row r="7" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <v>21010</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="I7" s="10">
         <v>45.735500000000002</v>
@@ -3113,64 +3138,65 @@
         <v>-107.524</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-    </row>
-    <row r="8" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+    </row>
+    <row r="8" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="10">
         <v>21011</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="I8" s="10">
         <v>48.322200000000002</v>
@@ -3179,64 +3205,65 @@
         <v>-107.8668</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-    </row>
-    <row r="9" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+    </row>
+    <row r="9" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10">
         <v>21012</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="I9" s="10">
         <v>48.509700000000002</v>
@@ -3245,64 +3272,65 @@
         <v>-111.83580000000001</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W9" s="10"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-    </row>
-    <row r="10" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+    </row>
+    <row r="10" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10">
         <v>21013</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>208</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>212</v>
       </c>
       <c r="I10" s="10">
         <v>48.099299999999999</v>
@@ -3311,64 +3339,65 @@
         <v>-105.6615</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W10" s="10"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-    </row>
-    <row r="11" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+    </row>
+    <row r="11" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10">
         <v>21014</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="I11" s="10">
         <v>46.301600000000001</v>
@@ -3377,64 +3406,65 @@
         <v>-104.205</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W11" s="10"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
-    </row>
-    <row r="12" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+    </row>
+    <row r="12" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10">
         <v>21015</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="I12" s="10">
         <v>48.776499999999999</v>
@@ -3443,64 +3473,65 @@
         <v>-105.41</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-    </row>
-    <row r="13" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+    </row>
+    <row r="13" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10">
         <v>21016</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="I13" s="10">
         <v>46.365699999999997</v>
@@ -3509,66 +3540,67 @@
         <v>-112.7079</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W13" s="10"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-    </row>
-    <row r="14" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+    </row>
+    <row r="14" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B14" s="10">
         <v>2287</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="I14" s="10">
         <v>48.311700000000002</v>
@@ -3577,10 +3609,10 @@
         <v>-114.34399999999999</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M14" s="10">
         <v>1971</v>
@@ -3589,7 +3621,7 @@
         <v>2060</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" s="11">
         <v>3621885</v>
@@ -3598,7 +3630,7 @@
         <v>2016</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S14" s="10">
         <v>0.84099999999999997</v>
@@ -3607,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X14" s="12">
         <v>36892</v>
@@ -3622,43 +3654,44 @@
         <v>39813</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
-      <c r="AD14" s="10">
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10">
         <v>0.36</v>
       </c>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
-    </row>
-    <row r="15" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+    </row>
+    <row r="15" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="10">
         <v>2287</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="I15" s="10">
         <v>48.311700000000002</v>
@@ -3667,10 +3700,10 @@
         <v>-114.34399999999999</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M15" s="10">
         <v>1971</v>
@@ -3679,7 +3712,7 @@
         <v>2060</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P15" s="11">
         <v>3621885</v>
@@ -3688,7 +3721,7 @@
         <v>2016</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S15" s="10">
         <v>0.84099999999999997</v>
@@ -3697,62 +3730,65 @@
         <v>0</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="X15" s="12">
         <v>39990</v>
       </c>
       <c r="Y15" s="12"/>
       <c r="Z15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA15" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10">
         <v>0.84</v>
       </c>
       <c r="AD15" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AE15" s="10">
         <v>0.53</v>
       </c>
-      <c r="AE15" s="65">
-        <v>0.3795</v>
-      </c>
-      <c r="AF15" s="65">
-        <v>0.44400000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AF15" s="50">
+        <v>3.7949999999999998E-2</v>
+      </c>
+      <c r="AG15" s="50">
+        <v>4.4299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" s="10">
         <v>2287</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="I16" s="10">
         <v>48.311700000000002</v>
@@ -3761,10 +3797,10 @@
         <v>-114.34399999999999</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M16" s="10">
         <v>1971</v>
@@ -3773,7 +3809,7 @@
         <v>2060</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P16" s="11">
         <v>3621885</v>
@@ -3782,7 +3818,7 @@
         <v>2016</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S16" s="10">
         <v>0.84099999999999997</v>
@@ -3791,62 +3827,65 @@
         <v>0</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="X16" s="12">
         <v>40787</v>
       </c>
       <c r="Y16" s="12"/>
       <c r="Z16" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA16" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10">
         <v>0.36</v>
       </c>
       <c r="AD16" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AE16" s="10">
         <v>0.19</v>
       </c>
-      <c r="AE16" s="65">
-        <v>0.16259999999999999</v>
-      </c>
-      <c r="AF16" s="65">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AF16" s="50">
+        <v>1.626E-2</v>
+      </c>
+      <c r="AG16" s="50">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B17" s="10">
         <v>20707</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="I17" s="10">
         <v>45.87462</v>
@@ -3855,10 +3894,10 @@
         <v>-111.41042</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M17" s="10">
         <v>1972</v>
@@ -3867,64 +3906,65 @@
         <v>2026</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="11">
-        <v>1908060</v>
+        <v>1996490</v>
       </c>
       <c r="Q17" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W17" s="10"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-    </row>
-    <row r="18" spans="1:32" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+    </row>
+    <row r="18" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B18" s="10">
         <v>2140</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="I18" s="10">
         <v>47.626669999999997</v>
@@ -3933,74 +3973,75 @@
         <v>-111.18899999999999</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M18" s="10">
         <v>1980</v>
       </c>
       <c r="N18" s="10">
-        <v>2022</v>
+        <v>2044</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18" s="11">
-        <v>2876543</v>
+        <v>3063276</v>
       </c>
       <c r="Q18" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W18" s="10"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-    </row>
-    <row r="19" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+    </row>
+    <row r="19" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="10">
         <v>21017</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>236</v>
       </c>
       <c r="I19" s="10">
         <v>48.540500000000002</v>
@@ -4009,66 +4050,67 @@
         <v>-109.586</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P19" s="11"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W19" s="10"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-    </row>
-    <row r="20" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+    </row>
+    <row r="20" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B20" s="10">
         <v>20856</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="I20" s="10">
         <v>47.663862000000002</v>
@@ -4077,10 +4119,10 @@
         <v>-114.207846</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M20" s="10">
         <v>1969</v>
@@ -4089,7 +4131,7 @@
         <v>2020</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P20" s="11">
         <v>526943.1825</v>
@@ -4098,55 +4140,56 @@
         <v>2012</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W20" s="10"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-    </row>
-    <row r="21" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
+    </row>
+    <row r="21" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B21" s="10">
         <v>21018</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I21" s="10">
         <v>46.671900000000001</v>
@@ -4155,64 +4198,75 @@
         <v>-111.878</v>
       </c>
       <c r="K21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" s="10">
+        <v>1995</v>
+      </c>
+      <c r="N21" s="10">
+        <v>2110</v>
+      </c>
+      <c r="O21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="10"/>
+      <c r="P21" s="11">
+        <v>1024830</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>2018</v>
+      </c>
       <c r="R21" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W21" s="10"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-    </row>
-    <row r="22" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+    </row>
+    <row r="22" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="10">
         <v>21019</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>242</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>246</v>
       </c>
       <c r="I22" s="10">
         <v>48.426000000000002</v>
@@ -4221,64 +4275,65 @@
         <v>-115.56180000000001</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P22" s="11"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W22" s="10"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="65"/>
-    </row>
-    <row r="23" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+    </row>
+    <row r="23" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="10">
         <v>21020</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>248</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>252</v>
       </c>
       <c r="I23" s="10">
         <v>46.410200000000003</v>
@@ -4287,66 +4342,67 @@
         <v>-105.7868</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P23" s="11"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W23" s="10"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
-    </row>
-    <row r="24" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
+    </row>
+    <row r="24" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B24" s="10">
         <v>2139</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I24" s="10">
         <v>46.902799999999999</v>
@@ -4355,10 +4411,10 @@
         <v>-114.011</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M24" s="10">
         <v>1968</v>
@@ -4367,66 +4423,67 @@
         <v>2069</v>
       </c>
       <c r="O24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="11">
+        <v>8024422</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P24" s="11">
-        <v>7771587</v>
-      </c>
-      <c r="Q24" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S24" s="10">
-        <v>1.004</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="T24" s="10">
-        <v>1.004</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W24" s="10"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
-      <c r="AE24" s="65"/>
-      <c r="AF24" s="65"/>
-    </row>
-    <row r="25" spans="1:32" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
+    </row>
+    <row r="25" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="10">
         <v>21021</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>258</v>
       </c>
       <c r="I25" s="10">
         <v>48.302</v>
@@ -4435,64 +4492,65 @@
         <v>-111.985</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W25" s="10"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA25" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
-      <c r="AE25" s="65"/>
-      <c r="AF25" s="65"/>
-    </row>
-    <row r="26" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
+    </row>
+    <row r="26" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="10">
         <v>21022</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>264</v>
       </c>
       <c r="I26" s="10">
         <v>45.685000000000002</v>
@@ -4501,7 +4559,7 @@
         <v>-110.49</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -4509,58 +4567,59 @@
         <v>2014</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P26" s="11"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W26" s="10"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA26" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
-      <c r="AE26" s="65"/>
-      <c r="AF26" s="65"/>
-    </row>
-    <row r="27" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+    </row>
+    <row r="27" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="10">
         <v>21023</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="I27" s="10">
         <v>47.850900000000003</v>
@@ -4569,64 +4628,65 @@
         <v>-104.2762</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="V27" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W27" s="10"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA27" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
-    </row>
-    <row r="28" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50"/>
+    </row>
+    <row r="28" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="10">
         <v>21024</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>276</v>
       </c>
       <c r="I28" s="10">
         <v>45.957999999999998</v>
@@ -4635,132 +4695,134 @@
         <v>-106.66500000000001</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P28" s="11"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W28" s="10"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA28" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
-      <c r="AE28" s="65"/>
-      <c r="AF28" s="65"/>
-    </row>
-    <row r="29" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+    </row>
+    <row r="29" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B29" s="10">
         <v>20838</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M29" s="10"/>
       <c r="N29" s="10">
         <v>1994</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P29" s="11"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="V29" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="W29" s="10"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA29" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
-      <c r="AE29" s="65"/>
-      <c r="AF29" s="65"/>
-    </row>
-    <row r="30" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="50"/>
+    </row>
+    <row r="30" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="10">
         <v>21025</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>282</v>
       </c>
       <c r="I30" s="10">
         <v>48.7562</v>
@@ -4769,64 +4831,65 @@
         <v>-104.592</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P30" s="11"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W30" s="10"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA30" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
       <c r="AD30" s="10"/>
-      <c r="AE30" s="65"/>
-      <c r="AF30" s="65"/>
-    </row>
-    <row r="31" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
+    </row>
+    <row r="31" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="10">
         <v>21026</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>288</v>
       </c>
       <c r="I31" s="10">
         <v>48.504300000000001</v>
@@ -4835,64 +4898,65 @@
         <v>-110.94799999999999</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P31" s="11"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="V31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W31" s="10"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
-      <c r="AE31" s="65"/>
-      <c r="AF31" s="65"/>
-    </row>
-    <row r="32" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="50"/>
+    </row>
+    <row r="32" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="10">
         <v>21027</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>290</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>294</v>
       </c>
       <c r="I32" s="10">
         <v>48.189300000000003</v>
@@ -4901,66 +4965,67 @@
         <v>-106.565</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P32" s="11"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W32" s="10"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA32" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
-      <c r="AE32" s="65"/>
-      <c r="AF32" s="65"/>
-    </row>
-    <row r="33" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
+    </row>
+    <row r="33" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B33" s="14">
         <v>20899</v>
       </c>
       <c r="C33" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="I33" s="14">
         <v>46.569369999999999</v>
@@ -4969,10 +5034,10 @@
         <v>-111.90459</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M33" s="14">
         <v>1988</v>
@@ -4981,7 +5046,7 @@
         <v>2086</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P33" s="15">
         <v>253543</v>
@@ -4990,33 +5055,34 @@
         <v>2012</v>
       </c>
       <c r="R33" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
       <c r="U33" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="V33" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W33" s="14"/>
       <c r="X33" s="16"/>
       <c r="Y33" s="16"/>
       <c r="Z33" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA33" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
       <c r="AD33" s="14"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="51"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG33">
     <sortCondition ref="C2:C33"/>
     <sortCondition ref="U2:U33"/>
   </sortState>
@@ -5025,7 +5091,7 @@
   <pageMargins left="0" right="0" top="0.8" bottom="0.9" header="0.4" footer="0.3"/>
   <pageSetup paperSize="5" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Montana&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Montana&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;8&amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
@@ -5037,7 +5103,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5055,10 +5121,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5066,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5074,7 +5140,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5082,7 +5148,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5090,7 +5156,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5098,7 +5164,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5106,7 +5172,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5114,7 +5180,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5122,7 +5188,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5130,7 +5196,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5138,7 +5204,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5146,7 +5212,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5154,7 +5220,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5162,7 +5228,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5170,7 +5236,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5178,7 +5244,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5186,7 +5252,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5194,7 +5260,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.25">
@@ -5202,7 +5268,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5210,7 +5276,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5218,7 +5284,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5226,7 +5292,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5234,7 +5300,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5242,7 +5308,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5250,7 +5316,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5258,7 +5324,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5266,7 +5332,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5274,47 +5340,55 @@
         <v>25</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>71</v>
+      <c r="A30" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>72</v>
+      <c r="A31" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>74</v>
+      <c r="B34" s="46" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
